--- a/Risorse/grafiche_varie.xlsx
+++ b/Risorse/grafiche_varie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giuli\Desktop\SistemiDiProduzione\Risorse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC5BAC9-735B-40FE-AE94-271012E85F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075B00BE-685F-4F68-812B-4D9A5A2A6F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{927C6EB2-3340-47EC-A30B-409D89422D68}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Tempo apertura impianto</t>
   </si>
@@ -120,12 +120,76 @@
   <si>
     <t>scarti, rilavorazioni</t>
   </si>
+  <si>
+    <t>20% 
+ Movimento</t>
+  </si>
+  <si>
+    <t>75 Attese</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trasformazione</t>
+    </r>
+  </si>
+  <si>
+    <t>30% lavorazione</t>
+  </si>
+  <si>
+    <t>70% caricamento e posizionamento</t>
+  </si>
+  <si>
+    <t>Rilevazione</t>
+  </si>
+  <si>
+    <t>Normalizzazione</t>
+  </si>
+  <si>
+    <t>Maggiorazioni
+ordinarie</t>
+  </si>
+  <si>
+    <t>Maggiorazioni
+straordinarie</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>TAUS</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,8 +206,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,8 +260,65 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -192,23 +341,157 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -269,6 +552,250 @@
         <a:xfrm>
           <a:off x="0" y="2095500"/>
           <a:ext cx="7791450" cy="1676400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>3190876</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>140135</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C1B4CC0-30F4-DD27-31B8-283CB7B6ED72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9820276" y="5524500"/>
+          <a:ext cx="5314950" cy="330635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>2447925</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>27940</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD5AA499-B0E5-97F4-8E4F-FE2C4809AEC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16630650" y="5600700"/>
+          <a:ext cx="3743325" cy="332740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D87B0CCB-2488-C628-93AF-B1D08F84C0BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="21783675" y="7048500"/>
+          <a:ext cx="5048250" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96F75FF9-4222-8F85-0D10-120F874E057D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="30127575" y="9334500"/>
+          <a:ext cx="3286125" cy="1304925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -587,28 +1114,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF7D273-394B-4CB3-81E9-E96E0F38D7DE}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:AL45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="Z27" workbookViewId="0">
+      <selection activeCell="AM45" sqref="AM45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="8" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="22.5703125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="51.28515625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="4"/>
+    <col min="18" max="18" width="20.140625" customWidth="1"/>
+    <col min="19" max="19" width="39.5703125" customWidth="1"/>
+    <col min="22" max="25" width="17.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -619,10 +1153,10 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -632,10 +1166,10 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -644,10 +1178,10 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -655,13 +1189,110 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="27" spans="13:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="M27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S27" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="22:38" ht="30" x14ac:dyDescent="0.25">
+      <c r="V34" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="W34" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="X34" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y34" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="22:38" x14ac:dyDescent="0.25">
+      <c r="AF39" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG39" s="11"/>
+      <c r="AH39" s="11"/>
+      <c r="AI39" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ39" s="12"/>
+    </row>
+    <row r="40" spans="22:38" x14ac:dyDescent="0.25">
+      <c r="AF40" s="13"/>
+      <c r="AG40" s="16"/>
+      <c r="AH40" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI40" s="14"/>
+      <c r="AJ40" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="22:38" x14ac:dyDescent="0.25">
+      <c r="AF41" s="13"/>
+      <c r="AG41" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH41" s="14"/>
+      <c r="AI41" s="13"/>
+      <c r="AJ41" s="15"/>
+    </row>
+    <row r="42" spans="22:38" x14ac:dyDescent="0.25">
+      <c r="AF42" s="13"/>
+      <c r="AG42" s="17"/>
+      <c r="AH42" s="14"/>
+      <c r="AI42" s="13"/>
+      <c r="AJ42" s="15"/>
+    </row>
+    <row r="43" spans="22:38" x14ac:dyDescent="0.25">
+      <c r="AF43" s="13"/>
+      <c r="AG43" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH43" s="21"/>
+      <c r="AI43" s="14"/>
+      <c r="AJ43" s="15"/>
+    </row>
+    <row r="44" spans="22:38" x14ac:dyDescent="0.25">
+      <c r="AF44" s="13"/>
+      <c r="AG44" s="14"/>
+      <c r="AH44" s="14"/>
+      <c r="AI44" s="14"/>
+      <c r="AJ44" s="15"/>
+    </row>
+    <row r="45" spans="22:38" x14ac:dyDescent="0.25">
+      <c r="AF45" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG45" s="24"/>
+      <c r="AH45" s="24"/>
+      <c r="AI45" s="24"/>
+      <c r="AJ45" s="24"/>
+      <c r="AL45" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="AG43:AH43"/>
+    <mergeCell ref="AF45:AJ45"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="A1:H1"/>
